--- a/biology/Zoologie/Blaberidae/Blaberidae.xlsx
+++ b/biology/Zoologie/Blaberidae/Blaberidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les blabéridés ou Blaberidae forment la deuxième plus grande famille de blattes dont certaines sont les plus grandes, voire géantes, du monde des blattes.
 </t>
@@ -511,17 +523,96 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La famille des Blaberidae a été décrite par l’entomologiste suisse Carl Brunner von Wattenwyl en 1865.
-Taxinomie
-Liste des sous-familles
-Anaplectinae Walker, 1868
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Blaberidae a été décrite par l’entomologiste suisse Carl Brunner von Wattenwyl en 1865.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blaberidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blaberidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anaplectinae Walker, 1868
 Blattellinae Karny, 1908
 Ectobiinae Stephens, 1835
 Nyctiborinae Brunner von Wattenwyl, 1893
-Pseudophyllodromiinae Hebard, 1929
-Quelques espèces
+Pseudophyllodromiinae Hebard, 1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blaberidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blaberidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Archimandrita tessellata
 Blaberus atropos
 Blaberus colosseus
@@ -544,35 +635,37 @@
 Schultesia guianensis
 Schultesia lampyridiformis
 Schultesia nitor
-Sous-familles et genres</t>
+</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Blaberidae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Blaberidae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Note taxonomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres suivants sont dans une sous-famille incertaine, Eustegasta et Isoniscus ont été déplacés dans la sous-famille des Perisphaeriinae. Cryptocercus est quelquefois déplacé dans une sous-famille séparée : Cryptocercinae.
 </t>
